--- a/24 Dec_project/Global Data Repositories/16762cfd-75ee-4815-99d2-e1eccb1607b6.xlsx
+++ b/24 Dec_project/Global Data Repositories/16762cfd-75ee-4815-99d2-e1eccb1607b6.xlsx
@@ -2,17 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView/>
+    <workbookView activeTab="-1"/>
   </bookViews>
   <sheets>
-    <sheet name="GlobalDataRepositoryExcelSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="GlobalDataRepositoryExcelSheet" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>https://device.pcloudy.com/</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,11 +63,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1"/>
+    <row r="3" ht="16" customHeight="1"/>
+    <row r="4" ht="16" customHeight="1"/>
+    <row r="5" ht="16" customHeight="1"/>
+    <row r="6" ht="16" customHeight="1"/>
+    <row r="7" ht="16" customHeight="1"/>
+    <row r="8" ht="16" customHeight="1"/>
+    <row r="9" ht="16" customHeight="1"/>
+    <row r="10" ht="16" customHeight="1"/>
+    <row r="11" ht="16" customHeight="1"/>
+    <row r="12" ht="16" customHeight="1"/>
+    <row r="13" ht="16" customHeight="1"/>
+    <row r="14" ht="16" customHeight="1"/>
+    <row r="15" ht="16" customHeight="1"/>
+    <row r="16" ht="16" customHeight="1"/>
+    <row r="17" ht="16" customHeight="1"/>
+    <row r="18" ht="16" customHeight="1"/>
+    <row r="19" ht="16" customHeight="1"/>
+    <row r="20" ht="16" customHeight="1"/>
+    <row r="21" ht="16" customHeight="1"/>
+    <row r="22" ht="16" customHeight="1"/>
+    <row r="23" ht="16" customHeight="1"/>
+    <row r="24" ht="16" customHeight="1"/>
+    <row r="25" ht="16" customHeight="1"/>
+    <row r="26" ht="16" customHeight="1"/>
+    <row r="27" ht="16" customHeight="1"/>
+  </sheetData>
   <headerFooter/>
 </worksheet>
 </file>